--- a/data/info/match_info_jogo2.xlsx
+++ b/data/info/match_info_jogo2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28217"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coletas_3x3\rastreamento_3x3_Dvideow\jogo2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Documents\data\bruno\projetos\3x3\tracking3x3\data\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75E9798-6A8C-499C-B71F-5F08D000E3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>jogo_num</t>
   </si>
@@ -121,12 +120,39 @@
   </si>
   <si>
     <t>atleta_fora_fim</t>
+  </si>
+  <si>
+    <t>atleta_id</t>
+  </si>
+  <si>
+    <t>atleta_info</t>
+  </si>
+  <si>
+    <t>t1_tenis_preto_maior</t>
+  </si>
+  <si>
+    <t>t1_tenis_branco_pequeno</t>
+  </si>
+  <si>
+    <t>t1_tenis_preto_pequeno</t>
+  </si>
+  <si>
+    <t>t2_tenis_branco</t>
+  </si>
+  <si>
+    <t>t2_tenis_vermelho</t>
+  </si>
+  <si>
+    <t>t2_tenis_laranja</t>
+  </si>
+  <si>
+    <t>t2_tenis_verde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,11 +472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,18 +486,20 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,34 +519,40 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -537,475 +571,517 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>5240</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>5603</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>3525</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>4536</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>3525</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>15615</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3463</v>
       </c>
       <c r="C3">
         <v>49340</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>7163</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>7716</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>5603</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>7163</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>15</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>15615</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>18354</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>8266</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>8638</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>7716</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>8266</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>17</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>18354</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>24384</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>4</v>
+      </c>
       <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>8954</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>9608</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>8638</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>8954</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>14</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>24384</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>32145</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="I6">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6">
         <v>11907</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>12196</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>9608</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>11330</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>15</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>32145</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>34661</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7">
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="K7">
         <v>12819</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>13571</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>12196</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>12819</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>34661</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>40371</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="I8">
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8">
         <v>14401</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>14802</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>13571</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>14401</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>14</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>40371</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>49340</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>16240</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>17606</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>14802</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>15445</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="I10">
+      <c r="K10">
         <v>19452</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>19854</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>17606</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>19452</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>21825</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>22072</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>20890</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>21825</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>23035</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>23500</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>22852</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>23035</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>25173</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>25786</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>23500</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>25173</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>26868</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>27009</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>25786</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>26868</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K15">
         <v>27272</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>27860</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>27009</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>27272</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K16">
         <v>28240</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>28694</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>27860</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>28240</v>
       </c>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17">
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K17">
         <v>28983</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>29692</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>28694</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>28983</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I18">
+    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K18">
         <v>30132</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>30468</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>29692</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>30132</v>
       </c>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I19">
+    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K19">
         <v>36182</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>36388</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>33922</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>35387</v>
       </c>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I20">
+    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K20">
         <v>36863</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>37304</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>36388</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>36863</v>
       </c>
     </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I21">
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21">
         <v>37798</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>38141</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>37304</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>37798</v>
       </c>
     </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I22">
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K22">
         <v>38781</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>39258</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>38141</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>38781</v>
       </c>
     </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I23">
+    <row r="23" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K23">
         <v>41390</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>41801</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>39258</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>41390</v>
       </c>
     </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I24">
+    <row r="24" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K24">
         <v>42876</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>45561</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>41801</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>42876</v>
       </c>
     </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I25">
+    <row r="25" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K25">
         <v>46339</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>47189</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>45561</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>46339</v>
       </c>
     </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I26">
+    <row r="26" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K26">
         <v>47659</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>47885</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>47189</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>47659</v>
       </c>
     </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="K27">
+    <row r="27" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="M27">
         <v>47885</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>49238</v>
       </c>
     </row>
